--- a/Assets/SendPhone.xlsx
+++ b/Assets/SendPhone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C483587D-A32E-449D-882E-1777C38C4F19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516E143-9F3C-404D-8F03-8BFBFCBF6890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请尽快轻拍我的头部抓取奖励吧，10s后无操作，小胖就会偷偷帮您抓一次哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那小胖就帮您试一下手气吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,18 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫码支付29元，就能玩三次，游戏结束后必得礼品呦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天同一手机扫码三次，连续九局都能抓中，还能额外获得苹果平板电脑哦，快来扫码吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只需扫码支付29元，不但能得礼品还有机会能赢大奖呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小胖请您尽快完成微信扫码支付，支付完成就能开始游戏喽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,39 +242,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一次都未抓中呢，好遗憾，挑战被重置，游戏结束喽，这是小胖给您的礼品呦，快快取走吧，希望您喜欢呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓中一次已经很厉害呢，但是挑战失败，被重置喽，这是小胖送您的礼品哦，游戏结束，希望您再来找小胖玩哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓中两次已经很厉害很厉害啦，差一点挑战就能接上了，礼品，小胖这就奉上喽，快取走吧。记得再来找小胖玩呦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇哦，三局都抓中了呢，好厉害呀，小胖先将礼品送给您吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最后一局喽，放心大胆的去抓吧，相信自己，加油加油。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上次游戏您可是全抓中喽。要继续保持哦，不然挑战就中断了哦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小胖已经拿起小本本记下喽，只要您再扫码1次，且每局都能抓中就能获得苹果平板电脑喽，快来继续挑战吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哇哦，本次三局都抓中就能赢大奖啦。屏气凝神，好好把握哦。加油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇哇，大奖呀，恭喜您，今天同一手机扫码三次，且连续九局都抓中了，额外获得苹果平板电脑一台，赶快拿出手机拍照记住兑换码吧，可拨打我们的售后电话，提供兑换码及相应信息就能领取终极大礼喽。恭喜那您呀。</t>
+    <t>扫码支付#元，就能玩*次，游戏结束后必得礼品呦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需扫码支付#元，不但能得礼品还有机会能赢大奖呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次都未抓种呢，好遗憾，挑战被重置，游戏结束喽，这是小胖给您的礼品呦，快快取走吧，希望您喜欢呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哦，三局都抓种了呢，好厉害呀，小胖先将礼品送给您吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓种一次已经很厉害呢，但是挑战失败，被重置喽，这是小胖送您的礼品哦，游戏结束，希望您再来找小胖玩哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓种两次已经很厉害很厉害啦，差一点挑战就能接上了，礼品，小胖这就奉上喽，快取走吧。记得再来找小胖玩呦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次游戏您可是全抓种喽。要继续保持哦，不然挑战就中断了哦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哦，本次三局都抓种就能赢大奖啦。屏气凝神，好好把握哦。加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哇，大奖呀，恭喜您，今天同一手机扫码三次，且连续九局都抓种了，额外获得苹果平板电脑一台，赶快拿出手机拍照记住兑换码吧，可拨打我们的售后电话，提供兑换码及相应信息就能领取终极大礼喽。恭喜那您呀。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,13 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -621,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,13 +631,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -662,7 +655,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -684,21 +677,21 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -708,21 +701,21 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -734,19 +727,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -758,19 +751,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -782,7 +775,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -794,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -806,7 +799,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -818,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -830,7 +823,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -841,8 +834,8 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -854,19 +847,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -878,19 +871,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -902,19 +895,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -926,19 +919,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -950,19 +943,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -972,21 +965,21 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -998,19 +991,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1020,18 +1013,18 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>26</v>
@@ -1044,18 +1037,18 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
@@ -1070,19 +1063,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1092,21 +1085,21 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1118,19 +1111,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1142,19 +1135,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1166,19 +1159,19 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1190,19 +1183,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1214,13 +1207,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1238,7 +1231,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1262,7 +1255,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1286,7 +1279,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -1310,13 +1303,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1334,13 +1327,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1358,13 +1351,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1382,13 +1375,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1404,21 +1397,21 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1428,21 +1421,21 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1452,21 +1445,21 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1478,19 +1471,19 @@
     </row>
     <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1502,19 +1495,19 @@
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1524,21 +1517,21 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1550,19 +1543,19 @@
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1572,21 +1565,21 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1596,21 +1589,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1622,19 +1615,19 @@
     </row>
     <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1644,21 +1637,21 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1670,19 +1663,19 @@
     </row>
     <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1694,19 +1687,19 @@
     </row>
     <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1716,21 +1709,21 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1740,22 +1733,12 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1764,22 +1747,12 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1788,22 +1761,12 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -6152,48 +6115,6 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
-      <c r="H362" s="1"/>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/SendPhone.xlsx
+++ b/Assets/SendPhone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516E143-9F3C-404D-8F03-8BFBFCBF6890}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9D163-A0FF-4A3E-BBFB-3B1E17891AAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小胖已经拿起小本本记下喽，只要您再扫码两次，且每局都能抓中就能获得苹果平板电脑喽，快来继续挑战吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二局开始啦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小胖已经拿起小本本记下喽，只要您再扫码1次，且每局都能抓中就能获得苹果平板电脑喽，快来继续挑战吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扫码支付#元，就能玩*次，游戏结束后必得礼品呦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +275,14 @@
   </si>
   <si>
     <t>哇哇，大奖呀，恭喜您，今天同一手机扫码三次，且连续九局都抓种了，额外获得苹果平板电脑一台，赶快拿出手机拍照记住兑换码吧，可拨打我们的售后电话，提供兑换码及相应信息就能领取终极大礼喽。恭喜那您呀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小胖已经拿起小本本记下喽，只要您再扫码1次，且每局都能抓种就能获得苹果平板电脑喽，快来继续挑战吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小胖已经拿起小本本记下喽，只要您再扫码两次，且每局都能抓种就能获得苹果平板电脑喽，快来继续挑战吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1399,19 +1399,19 @@
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1423,19 +1423,19 @@
     </row>
     <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -1543,19 +1543,19 @@
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1597,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1645,13 +1645,13 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1693,13 +1693,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
